--- a/biology/Zoologie/Les_Champions_de_la_nature/Les_Champions_de_la_nature.xlsx
+++ b/biology/Zoologie/Les_Champions_de_la_nature/Les_Champions_de_la_nature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Champions de la nature (Champions of the Wild) est une série documentaire en 65 épisodes de 25 minutes, produite par Omnifilm Entertainment (en) et diffusée sur Animal Planet. En France, la série a été diffusée à partir du 12 octobre 1998 sur La Cinquième dans le cadre du programme Le Monde des animaux. Les saisons 4 et 5, inédites à la télévision française, sont disponibles en streaming à partir de 2010 sur la chaîne Top Docs, via les sites internets replay.fr. et YouTube. 
 Cette série vise à faire connaître le travail des scientifiques, qui consacrent toutes leurs efforts à protéger et étudier les animaux en voie de disparition. 
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Saison 1 (1997)
-Le grizzly
+          <t>Saison 1 (1997)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le grizzly
 Le requin
 L'ours polaire
 Le dauphin
@@ -527,9 +544,43 @@
 Le gorille
 Le lémurien
 La baleine franche
-Le loup
-Saison 2 (1998)
-L'éléphant d'Afrique
+Le loup</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Saison 2 (1998)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'éléphant d'Afrique
 Le tigre du Bengale
 Le capucin
 Rhinocéros blancs et noirs
@@ -541,9 +592,43 @@
 le kangourou
 Le parc Ol Jogi
 Le bélouga du Saint-Laurent
-La réserve de Nazinga
-Saison 3 (1999)
-Le lion de Tanzanie
+La réserve de Nazinga</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saison 3 (1999)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le lion de Tanzanie
 Le guépard
 Le jaguar
 Le lynx
@@ -555,9 +640,43 @@
 Le crocodile de Cuba
 La girafe
 Le caribou de la rivière Porcupine
-Le chien chasseur d'ours de Carélie
-Saison 4 (2000)
-L'hippocampe
+Le chien chasseur d'ours de Carélie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 4 (2000)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'hippocampe
 La marmotte
 Le bonobo
 La faune d'Ouganda
@@ -569,9 +688,43 @@
 La pieuvre
 Le glouton
 La hyène
-L'éléphant de mer
-Saison 5 (2001)
-Le gorille des montagnes
+L'éléphant de mer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Champions_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 5 (2001)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le gorille des montagnes
 La grue du Canada
 L'élan
 Le cerf du Canada
@@ -587,31 +740,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Les_Champions_de_la_nature</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Les_Champions_de_la_nature</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Auteur : Christian Bruyère et Ian Herring
 Réalisateur : Andrew Gardner, Chris Aikenhead, Christian Bruyère, Gary Marcuse
